--- a/INTLINE/data/142/STANOR/old/08183 Consumer Price Index.xlsx
+++ b/INTLINE/data/142/STANOR/old/08183 Consumer Price Index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="1246">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1249">
   <x:si>
     <x:t>08183: Consumer Price Index, by month and contents</x:t>
   </x:si>
@@ -3685,19 +3685,28 @@
     <x:t>2021M11</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
     <x:t>As of 2017 the reference year is 2015=100. See the completed time series for published rates of change figures through 2016 with 1998=100.</x:t>
   </x:si>
   <x:si>
     <x:t>Some price indices for services are based on estimated values as of April 2020. For more details see footnotes table 03013.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Consumer Price Index (2015=100):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211210 08:00</x:t>
+    <x:t>20220310 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -4144,14 +4153,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B1268"/>
+  <x:dimension ref="A1:B1271"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="31.000625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -13932,147 +13940,175 @@
         <x:v>118.1</x:v>
       </x:c>
     </x:row>
+    <x:row r="1225" spans="1:2">
+      <x:c r="A1225" s="2" t="s">
+        <x:v>1223</x:v>
+      </x:c>
+      <x:c r="B1225" s="3" t="n">
+        <x:v>118.9</x:v>
+      </x:c>
+    </x:row>
     <x:row r="1226" spans="1:2">
-      <x:c r="A1226" s="4" t="s">
-        <x:v>1223</x:v>
+      <x:c r="A1226" s="2" t="s">
+        <x:v>1224</x:v>
+      </x:c>
+      <x:c r="B1226" s="3" t="n">
+        <x:v>117.8</x:v>
       </x:c>
     </x:row>
     <x:row r="1227" spans="1:2">
-      <x:c r="A1227" s="4" t="s">
-        <x:v>1224</x:v>
+      <x:c r="A1227" s="2" t="s">
+        <x:v>1225</x:v>
+      </x:c>
+      <x:c r="B1227" s="3" t="n">
+        <x:v>119.1</x:v>
       </x:c>
     </x:row>
     <x:row r="1229" spans="1:2">
-      <x:c r="A1229" s="0" t="s">
-        <x:v>1225</x:v>
+      <x:c r="A1229" s="4" t="s">
+        <x:v>1226</x:v>
       </x:c>
     </x:row>
     <x:row r="1230" spans="1:2">
-      <x:c r="A1230" s="0" t="s">
-        <x:v>1226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1231" spans="1:2">
-      <x:c r="A1231" s="0" t="s">
+      <x:c r="A1230" s="4" t="s">
         <x:v>1227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1232" spans="1:2">
+      <x:c r="A1232" s="0" t="s">
+        <x:v>1228</x:v>
       </x:c>
     </x:row>
     <x:row r="1233" spans="1:2">
       <x:c r="A1233" s="0" t="s">
-        <x:v>1228</x:v>
+        <x:v>1229</x:v>
       </x:c>
     </x:row>
     <x:row r="1234" spans="1:2">
       <x:c r="A1234" s="0" t="s">
-        <x:v>1229</x:v>
+        <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="1236" spans="1:2">
       <x:c r="A1236" s="0" t="s">
-        <x:v>1230</x:v>
+        <x:v>1231</x:v>
       </x:c>
     </x:row>
     <x:row r="1237" spans="1:2">
       <x:c r="A1237" s="0" t="s">
-        <x:v>1226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1238" spans="1:2">
-      <x:c r="A1238" s="0" t="s">
-        <x:v>1231</x:v>
+        <x:v>1232</x:v>
       </x:c>
     </x:row>
     <x:row r="1239" spans="1:2">
       <x:c r="A1239" s="0" t="s">
-        <x:v>1232</x:v>
+        <x:v>1233</x:v>
       </x:c>
     </x:row>
     <x:row r="1240" spans="1:2">
       <x:c r="A1240" s="0" t="s">
-        <x:v>1233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1244" spans="1:2">
-      <x:c r="A1244" s="0" t="s">
+        <x:v>1229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1241" spans="1:2">
+      <x:c r="A1241" s="0" t="s">
         <x:v>1234</x:v>
       </x:c>
     </x:row>
-    <x:row r="1246" spans="1:2">
-      <x:c r="A1246" s="0" t="s">
+    <x:row r="1242" spans="1:2">
+      <x:c r="A1242" s="0" t="s">
         <x:v>1235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1243" spans="1:2">
+      <x:c r="A1243" s="0" t="s">
+        <x:v>1236</x:v>
       </x:c>
     </x:row>
     <x:row r="1247" spans="1:2">
       <x:c r="A1247" s="0" t="s">
-        <x:v>1226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1248" spans="1:2">
-      <x:c r="A1248" s="0" t="s">
-        <x:v>1236</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="1249" spans="1:2">
       <x:c r="A1249" s="0" t="s">
-        <x:v>1237</x:v>
+        <x:v>1238</x:v>
       </x:c>
     </x:row>
     <x:row r="1250" spans="1:2">
       <x:c r="A1250" s="0" t="s">
-        <x:v>1226</x:v>
+        <x:v>1229</x:v>
       </x:c>
     </x:row>
     <x:row r="1251" spans="1:2">
       <x:c r="A1251" s="0" t="s">
-        <x:v>1238</x:v>
+        <x:v>1239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1252" spans="1:2">
+      <x:c r="A1252" s="0" t="s">
+        <x:v>1240</x:v>
       </x:c>
     </x:row>
     <x:row r="1253" spans="1:2">
       <x:c r="A1253" s="0" t="s">
-        <x:v>1239</x:v>
+        <x:v>1229</x:v>
       </x:c>
     </x:row>
     <x:row r="1254" spans="1:2">
       <x:c r="A1254" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1255" spans="1:2">
-      <x:c r="A1255" s="0" t="s">
-        <x:v>1240</x:v>
+        <x:v>1241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1256" spans="1:2">
+      <x:c r="A1256" s="0" t="s">
+        <x:v>1242</x:v>
       </x:c>
     </x:row>
     <x:row r="1257" spans="1:2">
       <x:c r="A1257" s="0" t="s">
-        <x:v>1226</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="1258" spans="1:2">
       <x:c r="A1258" s="0" t="s">
-        <x:v>1241</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1264" spans="1:2">
-      <x:c r="A1264" s="0" t="s">
-        <x:v>1242</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="1265" spans="1:2">
-      <x:c r="A1265" s="0" t="s">
         <x:v>1243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1260" spans="1:2">
+      <x:c r="A1260" s="0" t="s">
+        <x:v>1229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1261" spans="1:2">
+      <x:c r="A1261" s="0" t="s">
+        <x:v>1244</x:v>
       </x:c>
     </x:row>
     <x:row r="1267" spans="1:2">
       <x:c r="A1267" s="0" t="s">
-        <x:v>1244</x:v>
+        <x:v>1245</x:v>
       </x:c>
     </x:row>
     <x:row r="1268" spans="1:2">
       <x:c r="A1268" s="0" t="s">
-        <x:v>1245</x:v>
+        <x:v>1246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1270" spans="1:2">
+      <x:c r="A1270" s="0" t="s">
+        <x:v>1247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1271" spans="1:2">
+      <x:c r="A1271" s="0" t="s">
+        <x:v>1248</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A1229:B1229"/>
+    <x:mergeCell ref="A1230:B1230"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
